--- a/temp_models/accuracies/overall_stats/regular_overall_stats.xlsx
+++ b/temp_models/accuracies/overall_stats/regular_overall_stats.xlsx
@@ -522,49 +522,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>457</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>83739.82000000001</v>
+        <v>19604.28</v>
       </c>
       <c r="F2" t="n">
-        <v>1119</v>
+        <v>298</v>
       </c>
       <c r="G2" t="n">
-        <v>4859.391057468718</v>
+        <v>1282.961634261073</v>
       </c>
       <c r="H2" t="n">
-        <v>95.20999999999999</v>
+        <v>93.69</v>
       </c>
       <c r="I2" t="n">
-        <v>3.76</v>
+        <v>4.29</v>
       </c>
       <c r="J2" t="n">
-        <v>476.63</v>
+        <v>887.96</v>
       </c>
       <c r="K2" t="n">
-        <v>173.09</v>
+        <v>177.04</v>
       </c>
       <c r="L2" t="n">
-        <v>-58.25</v>
+        <v>-55.5</v>
       </c>
       <c r="M2" t="n">
-        <v>952</v>
+        <v>199.25</v>
       </c>
       <c r="N2" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>77761.42999999999</v>
+        <v>18023.32</v>
       </c>
       <c r="P2" t="n">
-        <v>14.01</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +574,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>477</v>
+        <v>111</v>
       </c>
       <c r="C3" t="n">
-        <v>453</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>82515.37</v>
+        <v>19870.78</v>
       </c>
       <c r="F3" t="n">
-        <v>1174</v>
+        <v>221</v>
       </c>
       <c r="G3" t="n">
-        <v>4842.573381419922</v>
+        <v>1289.975419289334</v>
       </c>
       <c r="H3" t="n">
-        <v>94.97</v>
+        <v>95.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.74</v>
+        <v>4.27</v>
       </c>
       <c r="J3" t="n">
-        <v>476.63</v>
+        <v>887.96</v>
       </c>
       <c r="K3" t="n">
-        <v>171.97</v>
+        <v>175.86</v>
       </c>
       <c r="L3" t="n">
-        <v>-58.39</v>
+        <v>-56.31</v>
       </c>
       <c r="M3" t="n">
-        <v>946.5</v>
+        <v>204</v>
       </c>
       <c r="N3" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="O3" t="n">
-        <v>76498.8</v>
+        <v>18359.8</v>
       </c>
       <c r="P3" t="n">
-        <v>13.71</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="4">
@@ -626,49 +626,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485</v>
+        <v>107</v>
       </c>
       <c r="C4" t="n">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>83716.37</v>
+        <v>18890.28</v>
       </c>
       <c r="F4" t="n">
-        <v>1281</v>
+        <v>91</v>
       </c>
       <c r="G4" t="n">
-        <v>4948.157582282171</v>
+        <v>1240.120655435238</v>
       </c>
       <c r="H4" t="n">
-        <v>94.64</v>
+        <v>98.13</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>4.12</v>
       </c>
       <c r="J4" t="n">
-        <v>476.63</v>
+        <v>394.09</v>
       </c>
       <c r="K4" t="n">
-        <v>172.17</v>
+        <v>168.37</v>
       </c>
       <c r="L4" t="n">
-        <v>-59.22</v>
+        <v>-59.91</v>
       </c>
       <c r="M4" t="n">
-        <v>962.25</v>
+        <v>199.25</v>
       </c>
       <c r="N4" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="O4" t="n">
-        <v>77487.21000000001</v>
+        <v>17559.16</v>
       </c>
       <c r="P4" t="n">
-        <v>13.44</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="5">
@@ -678,49 +678,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="C5" t="n">
-        <v>459</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>83627.87</v>
+        <v>19690.28</v>
       </c>
       <c r="F5" t="n">
-        <v>1174</v>
+        <v>221</v>
       </c>
       <c r="G5" t="n">
-        <v>4901.263622834256</v>
+        <v>1276.44671611948</v>
       </c>
       <c r="H5" t="n">
-        <v>95.03</v>
+        <v>95.45</v>
       </c>
       <c r="I5" t="n">
-        <v>3.74</v>
+        <v>4.28</v>
       </c>
       <c r="J5" t="n">
-        <v>476.63</v>
+        <v>887.96</v>
       </c>
       <c r="K5" t="n">
-        <v>172.03</v>
+        <v>175.95</v>
       </c>
       <c r="L5" t="n">
-        <v>-58.79</v>
+        <v>-56.31</v>
       </c>
       <c r="M5" t="n">
-        <v>961.5</v>
+        <v>202.25</v>
       </c>
       <c r="N5" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="O5" t="n">
-        <v>77552.61</v>
+        <v>18192.83</v>
       </c>
       <c r="P5" t="n">
-        <v>13.77</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="6">
@@ -730,49 +730,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481</v>
+        <v>108</v>
       </c>
       <c r="C6" t="n">
-        <v>460</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>83635.87</v>
+        <v>18890.28</v>
       </c>
       <c r="F6" t="n">
-        <v>1037</v>
+        <v>121</v>
       </c>
       <c r="G6" t="n">
-        <v>4899.320649175997</v>
+        <v>1255.098155435238</v>
       </c>
       <c r="H6" t="n">
-        <v>95.63</v>
+        <v>97.22</v>
       </c>
       <c r="I6" t="n">
-        <v>3.73</v>
+        <v>4.12</v>
       </c>
       <c r="J6" t="n">
-        <v>476.63</v>
+        <v>394.09</v>
       </c>
       <c r="K6" t="n">
-        <v>171.63</v>
+        <v>168.37</v>
       </c>
       <c r="L6" t="n">
-        <v>-59.47</v>
+        <v>-54.93</v>
       </c>
       <c r="M6" t="n">
-        <v>960</v>
+        <v>200.75</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="O6" t="n">
-        <v>77699.55</v>
+        <v>17514.18</v>
       </c>
       <c r="P6" t="n">
-        <v>14.09</v>
+        <v>13.73</v>
       </c>
     </row>
   </sheetData>
